--- a/src/test/resources/config/TestData.xlsx
+++ b/src/test/resources/config/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\RESTAssuredBDD\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534D7BB-7B10-48A7-B488-79315F59DCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F09C3-1548-48E1-988A-8A5CE28DBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21870" yWindow="780" windowWidth="16515" windowHeight="9930" xr2:uid="{A4134BD0-6F01-40A1-AA77-D194A9223826}"/>
+    <workbookView xWindow="-19320" yWindow="2565" windowWidth="16020" windowHeight="8175" xr2:uid="{A4134BD0-6F01-40A1-AA77-D194A9223826}"/>
   </bookViews>
   <sheets>
     <sheet name="POST" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/config/TestData.xlsx
+++ b/src/test/resources/config/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\RESTAssuredBDD\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F09C3-1548-48E1-988A-8A5CE28DBC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51237247-29B1-452A-AA30-E19314934B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="2565" windowWidth="16020" windowHeight="8175" xr2:uid="{A4134BD0-6F01-40A1-AA77-D194A9223826}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{A4134BD0-6F01-40A1-AA77-D194A9223826}"/>
   </bookViews>
   <sheets>
     <sheet name="POST" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>https://example.com/dog600.jpg</t>
-  </si>
-  <si>
-    <t>500 Server Error</t>
   </si>
 </sst>
 </file>
@@ -506,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F579A5FD-25FB-4081-9491-31341399F40D}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/config/TestData.xlsx
+++ b/src/test/resources/config/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bloss\src\RESTAssuredBDD\src\test\resources\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51237247-29B1-452A-AA30-E19314934B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F800E-7AB9-4FB3-A630-333062CE61CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="8170" xr2:uid="{A4134BD0-6F01-40A1-AA77-D194A9223826}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{A4134BD0-6F01-40A1-AA77-D194A9223826}"/>
   </bookViews>
   <sheets>
     <sheet name="POST" sheetId="1" r:id="rId1"/>
